--- a/aggregate_results_formatted_RMSE_updated.xlsx
+++ b/aggregate_results_formatted_RMSE_updated.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akyla\wind-forecast-missing-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85073F4-61F2-42F8-A957-3478DCBAAF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3B764-8681-48D1-B60A-06673C9628FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F70D337F-9F15-416B-ABF6-BE69F518DFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>P_0_1</t>
   </si>
@@ -80,14 +81,14 @@
     <t>NN-ARF-LEARN-10</t>
   </si>
   <si>
-    <t>C</t>
+    <t>nn-diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +96,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,17 +133,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -131,6 +221,17 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -164,6 +265,29 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -182,28 +306,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -227,6 +329,18 @@
       <font>
         <b/>
         <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -236,7 +350,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
       </font>
       <fill>
@@ -260,10 +385,257 @@
       <font>
         <b/>
         <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -299,14 +671,6 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-        <filter val="16"/>
-        <filter val="4"/>
         <filter val="8"/>
       </filters>
     </filterColumn>
@@ -650,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A9A762-7A48-48A8-A90D-9E4F631998DE}">
   <dimension ref="A1:N637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="Q371" sqref="Q371"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10391,7 +10755,7 @@
         <v>0.152682062213718</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0.05</v>
       </c>
@@ -11271,7 +11635,7 @@
         <v>0.151953504530595</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0.05</v>
       </c>
@@ -15451,7 +15815,7 @@
         <v>0.15080927866049099</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0.05</v>
       </c>
@@ -16948,8 +17312,8 @@
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>14</v>
+      <c r="A371">
+        <v>0.1</v>
       </c>
       <c r="B371">
         <v>0.1</v>
@@ -16991,7 +17355,7 @@
         <v>0.15424705818644699</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.1</v>
       </c>
@@ -17871,7 +18235,7 @@
         <v>0.153013358066629</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>0.1</v>
       </c>
@@ -22051,7 +22415,7 @@
         <v>0.151221019346826</v>
       </c>
     </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>0.1</v>
       </c>
@@ -23591,7 +23955,7 @@
         <v>0.15595011520598501</v>
       </c>
     </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>0.2</v>
       </c>
@@ -24471,7 +24835,7 @@
         <v>0.15389282072346</v>
       </c>
     </row>
-    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>0.2</v>
       </c>
@@ -28651,7 +29015,7 @@
         <v>0.151809680448206</v>
       </c>
     </row>
-    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>0.2</v>
       </c>
@@ -28697,6 +29061,524 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I637">
+    <cfRule type="expression" dxfId="39" priority="4">
+      <formula>E2=MAX($E2:$I2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="5">
+      <formula>E2=MIN($E2:$I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:N637">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>E2=MIN($E2:$N2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N637">
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>J2=MAX($J2:$N2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="3">
+      <formula>J2=MIN($J2:$N2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B21C49-A5D0-40FF-B8B4-1898838263E4}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P2:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.17769836806202999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.187312542925679</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.18605865927373899</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.17967799989889699</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.17462479561705399</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.159057158896318</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.16042052604374901</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.161573895413333</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.15539236130473</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.152682062213718</v>
+      </c>
+      <c r="P2">
+        <f>100*(L2-N2)/L2</f>
+        <v>5.5032610168048572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.17092262687968299</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.18440603042486101</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.183545642584694</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.178113101310066</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.17328854887051701</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.15052056191225799</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.15770999510935599</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.15941154026713</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.15496972334735901</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.151953504530595</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="0">100*(L3-N3)/L3</f>
+        <v>4.6784791891712354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.16760832702176401</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.18330111414032699</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.18854217824532499</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.17546806870482701</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.17171286956406401</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.14747724822703001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.15162960287118199</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.15257946089285301</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.15372773485644201</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.15080927866049099</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.1601707215397199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18355688996050101</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.190576280810697</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.190322525219872</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.18232466035699799</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.177152958088168</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.16404329987677599</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.16183753621995201</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.16211627874854201</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.15635787953660499</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.15424705818644699</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.8540594583354206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.17419956786659599</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.18724209328900099</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.186992056543625</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.17973731215104699</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.174757543387426</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.152749584017665</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.159565057005539</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.161741282516107</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.15557245184245899</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.153013358066629</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5.3962255731518871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.16792386676288601</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.18313679352630899</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.188571175300799</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.17779482324189999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.172681067357005</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.147531798056345</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.153921218117584</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.155073338240902</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.154852843811184</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.151221019346826</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2.4841916333106431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.18859962109998199</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.191681335639801</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.19338578091266201</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.185349738019813</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.180770300878909</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.166651642826802</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.160703624575259</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.160814007888748</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.157844546260446</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.15595011520598501</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>3.0245454028655643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.17758658643113601</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.189726159636671</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.19047426438965601</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.181304683001831</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.17687378890181199</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.15498301143129301</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.160517555552009</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.161220020194001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.15614423305095801</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.15389282072346</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>4.5448446549776866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.16848785764240401</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.18163613062144501</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.187695984946117</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.17866841310963499</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.17352961498536501</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.147806928245623</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.15629167755439599</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.15712598846508799</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.155200928340267</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.151809680448206</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>3.3834683038848308</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:I10">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>E2=MAX($E2:$I2)</formula>
     </cfRule>
@@ -28704,22 +29586,19 @@
       <formula>E2=MIN($E2:$I2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N637">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>J2=MIN($J2:$N2)</formula>
+  <conditionalFormatting sqref="E2:N10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>E2=MIN($E2:$N2)</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N10">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>J2=MAX($J2:$N2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:N637">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E2=MIN($E2:$N2)</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>J2=MIN($J2:$N2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>